--- a/data/trans_orig/P16A_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Dificultad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2007 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2007 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2012 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2023 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>55352</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42377</v>
+        <v>42670</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70230</v>
+        <v>71871</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09475845243170058</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07254508834049411</v>
+        <v>0.07304699447548234</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1202278990939586</v>
+        <v>0.1230374427334471</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>154</v>
@@ -765,19 +765,19 @@
         <v>156841</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>133342</v>
+        <v>136447</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>178715</v>
+        <v>181272</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1700486256183418</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1445705672729458</v>
+        <v>0.1479368424758507</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1937644743694151</v>
+        <v>0.1965365843970068</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>210</v>
@@ -786,19 +786,19 @@
         <v>212194</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>186514</v>
+        <v>188423</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>238947</v>
+        <v>242871</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1408545658919117</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1238086022120344</v>
+        <v>0.1250753444663603</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1586132290481755</v>
+        <v>0.161217894407185</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>528789</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>513911</v>
+        <v>512270</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>541764</v>
+        <v>541471</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9052415475682994</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8797721009060422</v>
+        <v>0.8769625572665528</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.927454911659506</v>
+        <v>0.9269530055245176</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>731</v>
@@ -836,19 +836,19 @@
         <v>765492</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>743618</v>
+        <v>741061</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>788991</v>
+        <v>785886</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8299513743816582</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8062355256305849</v>
+        <v>0.8034634156029931</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8554294327270542</v>
+        <v>0.8520631575241493</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1249</v>
@@ -857,19 +857,19 @@
         <v>1294280</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1267527</v>
+        <v>1263603</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1319960</v>
+        <v>1318051</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8591454341080883</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8413867709518245</v>
+        <v>0.8387821055928151</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8761913977879655</v>
+        <v>0.8749246555336397</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>40723</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30607</v>
+        <v>29320</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54918</v>
+        <v>54602</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03777982634624619</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02839475340191127</v>
+        <v>0.02720109490650151</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05094951639123693</v>
+        <v>0.0506565668958554</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>101</v>
@@ -982,19 +982,19 @@
         <v>104692</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>85200</v>
+        <v>85886</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>126604</v>
+        <v>126500</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09899628295138885</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08056416578923031</v>
+        <v>0.08121343684312551</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1197154329446619</v>
+        <v>0.1196170209472122</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>142</v>
@@ -1003,19 +1003,19 @@
         <v>145415</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>123934</v>
+        <v>124570</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>169647</v>
+        <v>171960</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06809628137500195</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05803704677284682</v>
+        <v>0.0583349976592481</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07944377412729281</v>
+        <v>0.08052695725094584</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1037171</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1022976</v>
+        <v>1023292</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1047287</v>
+        <v>1048574</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9622201736537538</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9490504836087628</v>
+        <v>0.9493434331041452</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9716052465980887</v>
+        <v>0.9727989050934986</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>927</v>
@@ -1053,19 +1053,19 @@
         <v>952846</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>930934</v>
+        <v>931038</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>972338</v>
+        <v>971652</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9010037170486112</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8802845670553381</v>
+        <v>0.8803829790527878</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9194358342107697</v>
+        <v>0.9187865631568745</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1941</v>
@@ -1074,19 +1074,19 @@
         <v>1990017</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1965785</v>
+        <v>1963472</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2011498</v>
+        <v>2010862</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.931903718624998</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9205562258727071</v>
+        <v>0.9194730427490542</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9419629532271531</v>
+        <v>0.9416650023407523</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>39502</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27593</v>
+        <v>29272</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53276</v>
+        <v>54035</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03521915383334941</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0246018874421984</v>
+        <v>0.02609823848312345</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04749983641166209</v>
+        <v>0.04817690655977144</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -1199,19 +1199,19 @@
         <v>76771</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>61466</v>
+        <v>61679</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>93828</v>
+        <v>93898</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07723942018502879</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0618402897915845</v>
+        <v>0.06205509882373338</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09439974946499129</v>
+        <v>0.09447035521120023</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>115</v>
@@ -1220,19 +1220,19 @@
         <v>116273</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>98759</v>
+        <v>97004</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>138398</v>
+        <v>136466</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05496150223778828</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04668282986319728</v>
+        <v>0.04585303553798747</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.065419752336467</v>
+        <v>0.0645066730396488</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1082092</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1068318</v>
+        <v>1067559</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1094001</v>
+        <v>1092322</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9647808461666506</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9525001635883388</v>
+        <v>0.9518230934402288</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9753981125578018</v>
+        <v>0.9739017615168767</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>907</v>
@@ -1270,19 +1270,19 @@
         <v>917169</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>900112</v>
+        <v>900042</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>932474</v>
+        <v>932261</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9227605798149712</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9056002505350087</v>
+        <v>0.9055296447887998</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9381597102084154</v>
+        <v>0.9379449011762665</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1970</v>
@@ -1291,19 +1291,19 @@
         <v>1999261</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1977136</v>
+        <v>1979068</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2016775</v>
+        <v>2018530</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9450384977622117</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.934580247663533</v>
+        <v>0.9354933269603511</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9533171701368027</v>
+        <v>0.9541469644620125</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>21018</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13450</v>
+        <v>13342</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31365</v>
+        <v>31480</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04699914933765847</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03007597086687532</v>
+        <v>0.02983425310544051</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07013645261497151</v>
+        <v>0.07039264752687978</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -1416,19 +1416,19 @@
         <v>29400</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19779</v>
+        <v>19666</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39780</v>
+        <v>41350</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08617824296688077</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05797640981453654</v>
+        <v>0.05764469416899264</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1166032232455625</v>
+        <v>0.1212059616993929</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -1437,19 +1437,19 @@
         <v>50418</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37610</v>
+        <v>37002</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>66095</v>
+        <v>65082</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06395371880023148</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04770694304946504</v>
+        <v>0.04693603384890381</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0838388426995501</v>
+        <v>0.08255335403901426</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>426182</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>415835</v>
+        <v>415720</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>433750</v>
+        <v>433858</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9530008506623415</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9298635473850283</v>
+        <v>0.9296073524731202</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9699240291331246</v>
+        <v>0.9701657468945593</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>311</v>
@@ -1487,19 +1487,19 @@
         <v>311758</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>301378</v>
+        <v>299808</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>321379</v>
+        <v>321492</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9138217570331192</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8833967767544376</v>
+        <v>0.8787940383006072</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9420235901854636</v>
+        <v>0.9423553058310074</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>726</v>
@@ -1508,19 +1508,19 @@
         <v>737940</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>722263</v>
+        <v>723276</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>750748</v>
+        <v>751356</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9360462811997685</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9161611573004498</v>
+        <v>0.9174466459609857</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9522930569505348</v>
+        <v>0.9530639661510961</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>156595</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>133214</v>
+        <v>132997</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>183283</v>
+        <v>184187</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04846885169270136</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04123207243989916</v>
+        <v>0.04116497483673844</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05672940171781792</v>
+        <v>0.05700930614953192</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>358</v>
@@ -1633,19 +1633,19 @@
         <v>367706</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>334477</v>
+        <v>335854</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>401688</v>
+        <v>410154</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1109227725570517</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1008990507404967</v>
+        <v>0.1013142466602872</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1211741099538679</v>
+        <v>0.1237277187907336</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>516</v>
@@ -1654,19 +1654,19 @@
         <v>524300</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>480314</v>
+        <v>480467</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>569830</v>
+        <v>568188</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08009720269412224</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07337747778820732</v>
+        <v>0.07340080495918712</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08705281204146359</v>
+        <v>0.08680190958132876</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3074234</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3047546</v>
+        <v>3046642</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3097615</v>
+        <v>3097832</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9515311483072987</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9432705982821821</v>
+        <v>0.9429906938504681</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9587679275601007</v>
+        <v>0.9588350251632617</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2876</v>
@@ -1704,19 +1704,19 @@
         <v>2947263</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2913281</v>
+        <v>2904815</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2980492</v>
+        <v>2979115</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8890772274429484</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8788258900461321</v>
+        <v>0.8762722812092661</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8991009492595032</v>
+        <v>0.8986857533397127</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5886</v>
@@ -1725,19 +1725,19 @@
         <v>6021498</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5975968</v>
+        <v>5977610</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6065484</v>
+        <v>6065331</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9199027973058778</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9129471879585365</v>
+        <v>0.9131980904186713</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9266225222117928</v>
+        <v>0.9265991950408129</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>84375</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65840</v>
+        <v>67792</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>106193</v>
+        <v>102980</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08082355419724027</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0630690875412564</v>
+        <v>0.06493904972281887</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1017234943492166</v>
+        <v>0.09864617892016181</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>232</v>
@@ -2090,19 +2090,19 @@
         <v>251440</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>226324</v>
+        <v>221858</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>281441</v>
+        <v>279720</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.224514210031967</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2020875537101741</v>
+        <v>0.1980999566365066</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2513030472878585</v>
+        <v>0.249766412259517</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>307</v>
@@ -2111,19 +2111,19 @@
         <v>335814</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>301922</v>
+        <v>302578</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>374178</v>
+        <v>370931</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1551920463679304</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1395289438047894</v>
+        <v>0.1398324113784907</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1729213492890398</v>
+        <v>0.1714209371356157</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>959560</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>937742</v>
+        <v>940955</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>978095</v>
+        <v>976143</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9191764458027597</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8982765056507831</v>
+        <v>0.901353821079838</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9369309124587436</v>
+        <v>0.9350609502771811</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>799</v>
@@ -2161,19 +2161,19 @@
         <v>868488</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>838487</v>
+        <v>840208</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>893604</v>
+        <v>898070</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.775485789968033</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7486969527121408</v>
+        <v>0.750233587740483</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7979124462898258</v>
+        <v>0.8019000433634933</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1702</v>
@@ -2182,19 +2182,19 @@
         <v>1828049</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1789685</v>
+        <v>1792932</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1861941</v>
+        <v>1861285</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8448079536320696</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8270786507109599</v>
+        <v>0.8285790628643843</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8604710561952104</v>
+        <v>0.8601675886215093</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>57431</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43650</v>
+        <v>41796</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74304</v>
+        <v>74228</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05877885832606586</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04467471263394204</v>
+        <v>0.04277664625616364</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0760478123230037</v>
+        <v>0.07596996706895523</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>142</v>
@@ -2307,19 +2307,19 @@
         <v>152982</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>127303</v>
+        <v>130344</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>175891</v>
+        <v>177222</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1398042565531796</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1163370623165101</v>
+        <v>0.1191161457572338</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.160739168722822</v>
+        <v>0.1619553248991341</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>193</v>
@@ -2328,19 +2328,19 @@
         <v>210414</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>183931</v>
+        <v>183221</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>239235</v>
+        <v>242210</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.101583633749503</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08879831446983392</v>
+        <v>0.08845534379742491</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1154981822015378</v>
+        <v>0.1169343144085285</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>919642</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>902769</v>
+        <v>902845</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>933423</v>
+        <v>935277</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9412211416739341</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9239521876769962</v>
+        <v>0.9240300329310448</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9553252873660578</v>
+        <v>0.9572233537438362</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>878</v>
@@ -2378,19 +2378,19 @@
         <v>941280</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>918371</v>
+        <v>917040</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>966959</v>
+        <v>963918</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8601957434468204</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8392608312771781</v>
+        <v>0.8380446751008657</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8836629376834899</v>
+        <v>0.8808838542427662</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1751</v>
@@ -2399,19 +2399,19 @@
         <v>1860921</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1832100</v>
+        <v>1829125</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1887404</v>
+        <v>1888114</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.898416366250497</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8845018177984622</v>
+        <v>0.8830656855914715</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9112016855301659</v>
+        <v>0.9115446562025751</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>49704</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36823</v>
+        <v>35975</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65840</v>
+        <v>64490</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05615531107767983</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04160271893810889</v>
+        <v>0.04064497605471933</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07438603245734979</v>
+        <v>0.07286084103525578</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>97</v>
@@ -2524,19 +2524,19 @@
         <v>103290</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>84779</v>
+        <v>85378</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>122877</v>
+        <v>126096</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1179378930525902</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09680258329902668</v>
+        <v>0.09748582222584677</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.140303125823388</v>
+        <v>0.1439788276196441</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>143</v>
@@ -2545,19 +2545,19 @@
         <v>152993</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>129864</v>
+        <v>130855</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>178622</v>
+        <v>179300</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08688311507906372</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07374832509300362</v>
+        <v>0.07431079949779588</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1014374782790147</v>
+        <v>0.1018223820934642</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>835411</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>819275</v>
+        <v>820625</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>848292</v>
+        <v>849140</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9438446889223202</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9256139675426502</v>
+        <v>0.9271391589647442</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9583972810618911</v>
+        <v>0.9593550239452806</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>724</v>
@@ -2595,19 +2595,19 @@
         <v>772506</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>752919</v>
+        <v>749700</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>791017</v>
+        <v>790418</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8820621069474098</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.859696874176612</v>
+        <v>0.8560211723803558</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9031974167009731</v>
+        <v>0.9025141777741532</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1508</v>
@@ -2616,19 +2616,19 @@
         <v>1607918</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1582289</v>
+        <v>1581611</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1631047</v>
+        <v>1630056</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9131168849209362</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8985625217209854</v>
+        <v>0.8981776179065359</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9262516749069964</v>
+        <v>0.9256892005022042</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>35072</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24109</v>
+        <v>24293</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50067</v>
+        <v>51173</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06972311137710158</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04792788516862861</v>
+        <v>0.0482940446890136</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09953300994709738</v>
+        <v>0.1017316577359337</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -2741,19 +2741,19 @@
         <v>42163</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31657</v>
+        <v>31508</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56489</v>
+        <v>55345</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09312961050835848</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06992280843698323</v>
+        <v>0.06959502341062024</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1247732716415818</v>
+        <v>0.1222452972534606</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -2762,19 +2762,19 @@
         <v>77235</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61434</v>
+        <v>60089</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>96521</v>
+        <v>96190</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08081059620730298</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06427773196404815</v>
+        <v>0.06287005124152824</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1009886013060659</v>
+        <v>0.1006426176536074</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>467951</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>452956</v>
+        <v>451850</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>478914</v>
+        <v>478730</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9302768886228985</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9004669900529025</v>
+        <v>0.898268342264066</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9520721148313711</v>
+        <v>0.9517059553109863</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>371</v>
@@ -2812,19 +2812,19 @@
         <v>410573</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>396247</v>
+        <v>397391</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>421079</v>
+        <v>421228</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9068703894916416</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8752267283584182</v>
+        <v>0.8777547027465393</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9300771915630172</v>
+        <v>0.9304049765893797</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>803</v>
@@ -2833,19 +2833,19 @@
         <v>878523</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>859237</v>
+        <v>859568</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>894324</v>
+        <v>895669</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.919189403792697</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8990113986939342</v>
+        <v>0.8993573823463926</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9357222680359519</v>
+        <v>0.9371299487584718</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>226582</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>196266</v>
+        <v>195690</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>259040</v>
+        <v>257163</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06646298029269146</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05757039084846599</v>
+        <v>0.05740144074019898</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07598377222975652</v>
+        <v>0.07543317870473135</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>512</v>
@@ -2958,19 +2958,19 @@
         <v>549875</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>505505</v>
+        <v>507009</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>593860</v>
+        <v>597226</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.155212559873683</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1426882316862426</v>
+        <v>0.1431127855073112</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1676280406333609</v>
+        <v>0.1685784095522427</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>713</v>
@@ -2979,19 +2979,19 @@
         <v>776457</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>722700</v>
+        <v>722348</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>831763</v>
+        <v>831956</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1116904087970545</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1039576532284381</v>
+        <v>0.10390709187417</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1196460330965012</v>
+        <v>0.1196738009863052</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3182563</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3150105</v>
+        <v>3151982</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3212879</v>
+        <v>3213455</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9335370197073085</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9240162277702428</v>
+        <v>0.9245668212952685</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9424296091515338</v>
+        <v>0.9425985592598009</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2772</v>
@@ -3029,19 +3029,19 @@
         <v>2992847</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2948862</v>
+        <v>2945496</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3037217</v>
+        <v>3035713</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8447874401263169</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8323719593666392</v>
+        <v>0.8314215904477573</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8573117683137574</v>
+        <v>0.8568872144926889</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5764</v>
@@ -3050,19 +3050,19 @@
         <v>6175410</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6120104</v>
+        <v>6119911</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6229167</v>
+        <v>6229519</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8883095912029455</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8803539669034987</v>
+        <v>0.8803261990136948</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8960423467715618</v>
+        <v>0.89609290812583</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>88166</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>71791</v>
+        <v>71933</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>108560</v>
+        <v>107765</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07816158242983244</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06364478531740504</v>
+        <v>0.06377049789093085</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09624133986040005</v>
+        <v>0.09553633381832376</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>245</v>
@@ -3415,19 +3415,19 @@
         <v>268986</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>239634</v>
+        <v>239740</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>299562</v>
+        <v>300976</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2135555399170736</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1902523338021326</v>
+        <v>0.1903364365718377</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2378304376442771</v>
+        <v>0.2389528323290408</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>329</v>
@@ -3436,19 +3436,19 @@
         <v>357152</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>321371</v>
+        <v>321999</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>396663</v>
+        <v>392924</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1495889225529769</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1346023944171474</v>
+        <v>0.1348655952651608</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1661375048765458</v>
+        <v>0.1645715412848495</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1039831</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1019437</v>
+        <v>1020232</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1056206</v>
+        <v>1056064</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9218384175701676</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9037586601395999</v>
+        <v>0.9044636661816762</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9363552146825949</v>
+        <v>0.9362295021090691</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>943</v>
@@ -3486,19 +3486,19 @@
         <v>990575</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>959999</v>
+        <v>958585</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1019927</v>
+        <v>1019821</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7864444600829265</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7621695623557228</v>
+        <v>0.7610471676709593</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8097476661978674</v>
+        <v>0.8096635634281623</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1925</v>
@@ -3507,19 +3507,19 @@
         <v>2030406</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1990895</v>
+        <v>1994634</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2066187</v>
+        <v>2065559</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8504110774470232</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8338624951234542</v>
+        <v>0.8354284587151505</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8653976055828526</v>
+        <v>0.8651344047348392</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>57394</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43503</v>
+        <v>43941</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72447</v>
+        <v>72732</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06315238268865403</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0478677973138459</v>
+        <v>0.04834913099836158</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07971496514361948</v>
+        <v>0.08002852579858726</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>120</v>
@@ -3632,19 +3632,19 @@
         <v>131772</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>111214</v>
+        <v>110138</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>156133</v>
+        <v>154379</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1309244691005368</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1104986935335469</v>
+        <v>0.1094298376815829</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.15512809254688</v>
+        <v>0.1533856821709117</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>176</v>
@@ -3653,19 +3653,19 @@
         <v>189167</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>167016</v>
+        <v>163608</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>217958</v>
+        <v>217466</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09876608711386349</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08720119085561288</v>
+        <v>0.08542176741158362</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1137984326895189</v>
+        <v>0.1135415243631218</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>851431</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>836378</v>
+        <v>836093</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>865322</v>
+        <v>864884</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9368476173113459</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9202850348563805</v>
+        <v>0.9199714742014128</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9521322026861541</v>
+        <v>0.9516508690016384</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>831</v>
@@ -3703,19 +3703,19 @@
         <v>874703</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>850342</v>
+        <v>852096</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>895261</v>
+        <v>896337</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8690755308994632</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.84487190745312</v>
+        <v>0.8466143178290885</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8895013064664531</v>
+        <v>0.8905701623184173</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1656</v>
@@ -3724,19 +3724,19 @@
         <v>1726133</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1697342</v>
+        <v>1697834</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1748284</v>
+        <v>1751692</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9012339128861365</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8862015673104811</v>
+        <v>0.8864584756368779</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.912798809144387</v>
+        <v>0.9145782325884162</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>37166</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26371</v>
+        <v>26890</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50115</v>
+        <v>51480</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04511711872071193</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.032012931707713</v>
+        <v>0.03264323036542235</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06083661256874871</v>
+        <v>0.06249341039911045</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>76</v>
@@ -3849,19 +3849,19 @@
         <v>87770</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>67851</v>
+        <v>70561</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>107521</v>
+        <v>107981</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1138298865816199</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08799695814471981</v>
+        <v>0.09151188764128608</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1394460225409413</v>
+        <v>0.1400423297117422</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>112</v>
@@ -3870,19 +3870,19 @@
         <v>124935</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>104441</v>
+        <v>103218</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>150060</v>
+        <v>150047</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07833819947129284</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06548755410811065</v>
+        <v>0.06472061347810662</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09409216203783791</v>
+        <v>0.09408428225976746</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>786593</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>773644</v>
+        <v>772279</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>797388</v>
+        <v>796869</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9548828812792881</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9391633874312515</v>
+        <v>0.9375065896008892</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9679870682922871</v>
+        <v>0.9673567696345776</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>652</v>
@@ -3920,19 +3920,19 @@
         <v>683289</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>663538</v>
+        <v>663078</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>703208</v>
+        <v>700498</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.88617011341838</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8605539774590586</v>
+        <v>0.8599576702882579</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.91200304185528</v>
+        <v>0.9084881123587141</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1403</v>
@@ -3941,19 +3941,19 @@
         <v>1469883</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1444758</v>
+        <v>1444771</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1490377</v>
+        <v>1491600</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9216618005287072</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9059078379621626</v>
+        <v>0.9059157177402327</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9345124458918894</v>
+        <v>0.9352793865218935</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>26154</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17534</v>
+        <v>17510</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37552</v>
+        <v>38555</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05161636250256817</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03460413443550388</v>
+        <v>0.03455623658198303</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07411020341882492</v>
+        <v>0.07608947306516113</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -4066,19 +4066,19 @@
         <v>46122</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34243</v>
+        <v>35129</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59938</v>
+        <v>59421</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09418401044588885</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06992602783579105</v>
+        <v>0.07173665464208763</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1223975978490125</v>
+        <v>0.121342409933851</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>68</v>
@@ -4087,19 +4087,19 @@
         <v>72276</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>57306</v>
+        <v>57295</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91049</v>
+        <v>89378</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07253698208100022</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0575133102173964</v>
+        <v>0.05750216100953013</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09137843242436591</v>
+        <v>0.08970082574048228</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>480547</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>469149</v>
+        <v>468146</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>489167</v>
+        <v>489191</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9483836374974318</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9258897965811751</v>
+        <v>0.9239105269348385</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9653958655644962</v>
+        <v>0.965443763418017</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>413</v>
@@ -4137,19 +4137,19 @@
         <v>443576</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>429760</v>
+        <v>430277</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>455455</v>
+        <v>454569</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9058159895541111</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8776024021509875</v>
+        <v>0.8786575900661489</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.930073972164209</v>
+        <v>0.9282633453579123</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>858</v>
@@ -4158,19 +4158,19 @@
         <v>924122</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>905349</v>
+        <v>907020</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>939092</v>
+        <v>939103</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9274630179189998</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9086215675756338</v>
+        <v>0.9102991742595177</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9424866897826035</v>
+        <v>0.9424978389904698</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>208880</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>182526</v>
+        <v>181336</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>239743</v>
+        <v>238730</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06203228232280816</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05420582065649936</v>
+        <v>0.05385231826505241</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07119791072076952</v>
+        <v>0.07089705446904664</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>483</v>
@@ -4283,19 +4283,19 @@
         <v>534650</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>492055</v>
+        <v>493263</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>577268</v>
+        <v>585273</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1515965714223553</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1395190811798443</v>
+        <v>0.139861550751027</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.163680713229154</v>
+        <v>0.1659504445911594</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>685</v>
@@ -4304,19 +4304,19 @@
         <v>743530</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>692331</v>
+        <v>691084</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>798272</v>
+        <v>792121</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1078505636971468</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1004240094265984</v>
+        <v>0.1002431932222993</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1157910810024288</v>
+        <v>0.1148988197709046</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3158402</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3127539</v>
+        <v>3128552</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3184756</v>
+        <v>3185946</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9379677176771919</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9288020892792307</v>
+        <v>0.9291029455309534</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9457941793435007</v>
+        <v>0.9461476817349477</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2839</v>
@@ -4354,19 +4354,19 @@
         <v>2992142</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2949524</v>
+        <v>2941519</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3034737</v>
+        <v>3033529</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8484034285776447</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.836319286770846</v>
+        <v>0.8340495554088405</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8604809188201556</v>
+        <v>0.860138449248973</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5842</v>
@@ -4375,19 +4375,19 @@
         <v>6150545</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6095803</v>
+        <v>6101954</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6201744</v>
+        <v>6202991</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8921494363028533</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8842089189975711</v>
+        <v>0.8851011802290953</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8995759905734017</v>
+        <v>0.8997568067777006</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>102906</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86653</v>
+        <v>84825</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>121018</v>
+        <v>122986</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2063332612126204</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1737442650429142</v>
+        <v>0.170078596312674</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2426473444507951</v>
+        <v>0.2465937453240532</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>266</v>
@@ -4740,19 +4740,19 @@
         <v>172390</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>155314</v>
+        <v>153055</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>192066</v>
+        <v>191675</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2764526515998592</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2490681706885728</v>
+        <v>0.2454448571718827</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3080054324139161</v>
+        <v>0.3073782811925884</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>373</v>
@@ -4761,19 +4761,19 @@
         <v>275297</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>250938</v>
+        <v>250244</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>302557</v>
+        <v>301492</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2452928124531233</v>
+        <v>0.2452928124531232</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2235889697406342</v>
+        <v>0.2229704417365387</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2695818825102153</v>
+        <v>0.2686330126098161</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>395833</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>377721</v>
+        <v>375753</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>412086</v>
+        <v>413914</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7936667387873795</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7573526555492044</v>
+        <v>0.7534062546759469</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8262557349570856</v>
+        <v>0.829921403687326</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>595</v>
@@ -4811,19 +4811,19 @@
         <v>451190</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>431514</v>
+        <v>431905</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>468266</v>
+        <v>470525</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7235473484001407</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6919945675860838</v>
+        <v>0.6926217188074115</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7509318293114273</v>
+        <v>0.7545551428281172</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>943</v>
@@ -4832,19 +4832,19 @@
         <v>847023</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>819763</v>
+        <v>820828</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>871382</v>
+        <v>872076</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7547071875468768</v>
+        <v>0.7547071875468767</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7304181174897848</v>
+        <v>0.731366987390184</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7764110302593658</v>
+        <v>0.7770295582634614</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>79544</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>64257</v>
+        <v>64098</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>97721</v>
+        <v>94639</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08284695329887182</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06692505432597246</v>
+        <v>0.06675944403873639</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.101778470474881</v>
+        <v>0.09856833267813961</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>374</v>
@@ -4957,19 +4957,19 @@
         <v>221039</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>200915</v>
+        <v>198509</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>244293</v>
+        <v>245373</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1980903161022574</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1800560512662412</v>
+        <v>0.1778998935346179</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2189301171737965</v>
+        <v>0.2198978123650658</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>475</v>
@@ -4978,19 +4978,19 @@
         <v>300583</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>275023</v>
+        <v>273913</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>329159</v>
+        <v>329787</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.144790640639462</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1324784788638973</v>
+        <v>0.1319438065075432</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1585552976604257</v>
+        <v>0.158858190086092</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>880593</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>862416</v>
+        <v>865498</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>895880</v>
+        <v>896039</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9171530467011282</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8982215295251191</v>
+        <v>0.9014316673218604</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9330749456740276</v>
+        <v>0.9332405559612635</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1233</v>
@@ -5028,19 +5028,19 @@
         <v>894810</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>871556</v>
+        <v>870476</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>914934</v>
+        <v>917340</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8019096838977424</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7810698828262033</v>
+        <v>0.7801021876349341</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8199439487337588</v>
+        <v>0.822100106465382</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2042</v>
@@ -5049,19 +5049,19 @@
         <v>1775403</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1746827</v>
+        <v>1746199</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1800963</v>
+        <v>1802073</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.855209359360538</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8414447023395746</v>
+        <v>0.8411418099139082</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8675215211361028</v>
+        <v>0.8680561934924573</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>65917</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53877</v>
+        <v>53675</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>82559</v>
+        <v>81311</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06298939231744663</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05148410515299761</v>
+        <v>0.0512909901785059</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07889232273061562</v>
+        <v>0.07769970755556281</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>255</v>
@@ -5174,19 +5174,19 @@
         <v>150814</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>132872</v>
+        <v>132570</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>170178</v>
+        <v>168954</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1439556879070427</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1268293277622952</v>
+        <v>0.1265416144886146</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1624391456210485</v>
+        <v>0.1612709030322328</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>340</v>
@@ -5195,19 +5195,19 @@
         <v>216731</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>192121</v>
+        <v>193670</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>245001</v>
+        <v>242316</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1034950105823132</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09174313493302452</v>
+        <v>0.09248273528502098</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1169945770232211</v>
+        <v>0.115712359974842</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>980562</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>963920</v>
+        <v>965168</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>992602</v>
+        <v>992804</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9370106076825534</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9211076772693845</v>
+        <v>0.9223002924444375</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9485158948470027</v>
+        <v>0.9487090098214942</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1261</v>
@@ -5245,19 +5245,19 @@
         <v>896828</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>877464</v>
+        <v>878688</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>914770</v>
+        <v>915072</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8560443120929573</v>
+        <v>0.8560443120929574</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8375608543789514</v>
+        <v>0.8387290969677673</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8731706722377047</v>
+        <v>0.8734583855113854</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2205</v>
@@ -5266,19 +5266,19 @@
         <v>1877390</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1849120</v>
+        <v>1851805</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1902000</v>
+        <v>1900451</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8965049894176866</v>
+        <v>0.8965049894176867</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.883005422976779</v>
+        <v>0.8842876400251579</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9082568650669754</v>
+        <v>0.9075172647149776</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>52138</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40622</v>
+        <v>40692</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67726</v>
+        <v>67196</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05342371865336739</v>
+        <v>0.0534237186533674</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04162399405785309</v>
+        <v>0.04169559880000064</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0693968800652747</v>
+        <v>0.06885369150760244</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>174</v>
@@ -5391,19 +5391,19 @@
         <v>104176</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>90091</v>
+        <v>89313</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>120706</v>
+        <v>119323</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1144356542210162</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09896381710916355</v>
+        <v>0.09810906611953459</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1325936760197872</v>
+        <v>0.1310740891722844</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>236</v>
@@ -5412,19 +5412,19 @@
         <v>156314</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>136195</v>
+        <v>137121</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>177600</v>
+        <v>177496</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08286901902127027</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07220322925643033</v>
+        <v>0.07269411392693823</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09415386631427404</v>
+        <v>0.0940985460109601</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>923791</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>908203</v>
+        <v>908733</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>935307</v>
+        <v>935237</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9465762813466326</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9306031199347253</v>
+        <v>0.9311463084923973</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9583760059421469</v>
+        <v>0.9583044011999993</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1150</v>
@@ -5462,19 +5462,19 @@
         <v>806169</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>789639</v>
+        <v>791022</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>820254</v>
+        <v>821032</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8855643457789838</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8674063239802128</v>
+        <v>0.8689259108277155</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9010361828908365</v>
+        <v>0.9018909338804654</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2035</v>
@@ -5483,19 +5483,19 @@
         <v>1729960</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1708674</v>
+        <v>1708778</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1750079</v>
+        <v>1749153</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9171309809787298</v>
+        <v>0.9171309809787297</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.905846133685726</v>
+        <v>0.9059014539890399</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9277967707435697</v>
+        <v>0.9273058860730616</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>300506</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>267938</v>
+        <v>271477</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>330573</v>
+        <v>334971</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08632037354638183</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07696534319991016</v>
+        <v>0.07798182983313365</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09495721179838026</v>
+        <v>0.09622061590542347</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1069</v>
@@ -5608,19 +5608,19 @@
         <v>648419</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>611264</v>
+        <v>612727</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>688330</v>
+        <v>685496</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1753709155700553</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1653220113849807</v>
+        <v>0.165717617339906</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1861651292177103</v>
+        <v>0.1853988011128129</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1424</v>
@@ -5629,19 +5629,19 @@
         <v>948925</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>902168</v>
+        <v>904534</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1000948</v>
+        <v>1003225</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.132186182960877</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.125672897694498</v>
+        <v>0.1260025221395932</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1394329792649831</v>
+        <v>0.1397502797632937</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3180778</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3150711</v>
+        <v>3146313</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3213346</v>
+        <v>3209807</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9136796264536181</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9050427882016199</v>
+        <v>0.9037793840945768</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9230346568000898</v>
+        <v>0.9220181701668666</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4239</v>
@@ -5679,19 +5679,19 @@
         <v>3048997</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3009086</v>
+        <v>3011920</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3086152</v>
+        <v>3084689</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8246290844299445</v>
+        <v>0.8246290844299446</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8138348707822898</v>
+        <v>0.8146011988871874</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8346779886150205</v>
+        <v>0.8342823826600941</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7225</v>
@@ -5700,19 +5700,19 @@
         <v>6229776</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6177753</v>
+        <v>6175476</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6276533</v>
+        <v>6274167</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8678138170391231</v>
+        <v>0.867813817039123</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8605670207350158</v>
+        <v>0.8602497202367066</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8743271023055017</v>
+        <v>0.8739974778604066</v>
       </c>
     </row>
     <row r="18">
